--- a/www/IndicatorsPerCountry/Mali_UnifiedDemocracyScoresUDS_TerritorialRef_1960_2012_CCode_466.xlsx
+++ b/www/IndicatorsPerCountry/Mali_UnifiedDemocracyScoresUDS_TerritorialRef_1960_2012_CCode_466.xlsx
@@ -210,13 +210,13 @@
     <t>Melton, James, Stephen Meserve and Daniel Pemstein (2015). Unifid Democracy Scores (UDS). http://hdl.handle.net/10622/Y9G2ZV, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_Y9G2ZV.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_Y9G2ZV.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_Y9G2ZV.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_Y9G2ZV.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_Y9G2ZV.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_Y9G2ZV.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mali_UnifiedDemocracyScoresUDS_TerritorialRef_1960_2012_CCode_466.xlsx
+++ b/www/IndicatorsPerCountry/Mali_UnifiedDemocracyScoresUDS_TerritorialRef_1960_2012_CCode_466.xlsx
@@ -207,7 +207,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Mali_UnifiedDemocracyScoresUDS_TerritorialRef_1960_2012_CCode_466.xlsx</t>
   </si>
   <si>
-    <t>Melton, James, Stephen Meserve and Daniel Pemstein (2015). Unifid Democracy Scores (UDS). http://hdl.handle.net/10622/Y9G2ZV, accessed via the Clio Infra website.</t>
+    <t>Melton, James, Stephen Meserve, and Daniel Pemstein (2015). Unifid Democracy Scores (UDS). http://hdl.handle.net/10622/Y9G2ZV, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_Y9G2ZV.xml</t>
